--- a/0_helper_functions/helper_function_test/data/labeled_norm_0.xlsx
+++ b/0_helper_functions/helper_function_test/data/labeled_norm_0.xlsx
@@ -579,61 +579,61 @@
         <v>0.067</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4751071929931641</v>
+        <v>0.3138517439365387</v>
       </c>
       <c r="F2" t="n">
-        <v>0.592523992061615</v>
+        <v>0.9560918211936951</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4944792091846466</v>
+        <v>0.08330223709344864</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3138517439365387</v>
+        <v>0.09876348823308945</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9560918211936951</v>
+        <v>0.3474661111831665</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08330223709344864</v>
+        <v>0.8469153642654419</v>
       </c>
       <c r="K2" t="n">
-        <v>0.09876348823308945</v>
+        <v>0.7615082859992981</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3474661111831665</v>
+        <v>0.8828067779541016</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8469153642654419</v>
+        <v>0.880169153213501</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7615082859992981</v>
+        <v>0.8024652004241943</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8828067779541016</v>
+        <v>0.8510614633560181</v>
       </c>
       <c r="P2" t="n">
-        <v>0.880169153213501</v>
+        <v>0.3646984398365021</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8024652004241943</v>
+        <v>0.9519653916358948</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8510614633560181</v>
+        <v>0.2220075279474258</v>
       </c>
       <c r="S2" t="n">
-        <v>0.325244627520442</v>
+        <v>0.2990233950316907</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.6461782932281495</v>
+        <v>0.2754032664000988</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.4387313984334469</v>
+        <v>0.4159690041095019</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>

--- a/0_helper_functions/helper_function_test/data/labeled_norm_0.xlsx
+++ b/0_helper_functions/helper_function_test/data/labeled_norm_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,125 +441,110 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Drug_MW</t>
+          <t>Drug</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Drug_LogP</t>
+          <t>SL_1</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Drug_TPSA</t>
+          <t>SL_2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Drug</t>
+          <t>SL_3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>SL_1</t>
+          <t>LL_1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>SL_2</t>
+          <t>LL_2</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>SL_3</t>
+          <t>LL_3</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>LL_1</t>
+          <t>P_1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>LL_2</t>
+          <t>P_2</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>LL_3</t>
+          <t>P_3</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>P_1</t>
+          <t>S_1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>P_2</t>
+          <t>S_2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>P_3</t>
+          <t>S_3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>S_1</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>S_2</t>
+          <t>Solu</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>S_3</t>
+          <t>Solu_STD</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Water</t>
+          <t>Size</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Solu</t>
+          <t>Size_STD</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Solu_STD</t>
+          <t>PDI</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Size</t>
+          <t>PDI_STD</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Size_STD</t>
+          <t>Complexity</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>PDI</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>PDI_STD</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Complexity</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Complexity_STD</t>
         </is>
@@ -570,78 +555,69 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.354</v>
+        <v>48</v>
       </c>
       <c r="C2" t="n">
-        <v>0.391</v>
+        <v>59</v>
       </c>
       <c r="D2" t="n">
-        <v>0.067</v>
+        <v>49</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4751071929931641</v>
+        <v>32</v>
       </c>
       <c r="F2" t="n">
-        <v>0.592523992061615</v>
+        <v>96</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4944792091846466</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3138517439365387</v>
+        <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9560918211936951</v>
+        <v>34</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08330223709344864</v>
+        <v>86</v>
       </c>
       <c r="K2" t="n">
-        <v>0.09876348823308945</v>
+        <v>77</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3474661111831665</v>
+        <v>88</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8469153642654419</v>
+        <v>88</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7615082859992981</v>
+        <v>80</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8828067779541016</v>
+        <v>85</v>
       </c>
       <c r="P2" t="n">
-        <v>0.880169153213501</v>
+        <v>66.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8024652004241943</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8510614633560181</v>
+        <v>71.05</v>
       </c>
       <c r="S2" t="n">
-        <v>0.325244627520442</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="U2" t="n">
         <v>0</v>
       </c>
-      <c r="U2" t="n">
-        <v>0.6461782932281495</v>
-      </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W2" t="n">
-        <v>0.4387313984334469</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z2" t="n">
         <v>0</v>
       </c>
     </row>
